--- a/1- PM/CIL.xlsx
+++ b/1- PM/CIL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beshoy Sameh\Documents\GitHub\Car-Purchasing-App\1- PM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8E2E6D-768D-489B-864A-32FC87CF8B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCB185F-2E06-4000-AC5E-9776A74BCEA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="62">
   <si>
     <t>CONFIGURATION ITEM LIST (CIL)</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>Car-Purchasing-App/ 2- Reqs/ SRS V1.docx</t>
-  </si>
-  <si>
-    <t>Hold</t>
   </si>
   <si>
     <t>AML</t>
@@ -177,9 +174,6 @@
     <t>CLICK HERE TO CREATE IN SMARTSHEET</t>
   </si>
   <si>
-    <t>https://github.com/beshoysamehsamaan/Car-Purchasing-App/blob/main/1-%20PM/CIL%20v1.xlsx</t>
-  </si>
-  <si>
     <t>/Car-Purchasing-App/1- PM/CIL V1.0.xlsx</t>
   </si>
   <si>
@@ -202,13 +196,31 @@
   </si>
   <si>
     <t>https://github.com/beshoysamehsamaan/Car-Purchasing-App/blob/main/2-%20Reqs/RTM.docx</t>
+  </si>
+  <si>
+    <t>CIL_10</t>
+  </si>
+  <si>
+    <t>RACI</t>
+  </si>
+  <si>
+    <t>v.1.0</t>
+  </si>
+  <si>
+    <t>Car-Purchasing-App/1- PM/RACI.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/beshoysamehsamaan/Car-Purchasing-App/blob/main/1-%20PM/RACI.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/beshoysamehsamaan/Car-Purchasing-App/blob/main/1-%20PM/CIL.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -289,6 +301,11 @@
       <color rgb="FF000000"/>
       <name val="Century Gothic"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -399,7 +416,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -467,6 +484,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -690,7 +710,7 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -701,7 +721,7 @@
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="75.140625" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="31.85546875" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
     <col min="8" max="9" width="15.42578125" customWidth="1"/>
     <col min="10" max="11" width="16" customWidth="1"/>
   </cols>
@@ -776,7 +796,7 @@
         <v>17</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>18</v>
@@ -802,16 +822,16 @@
         <v>14</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>19</v>
@@ -823,33 +843,33 @@
         <v>20</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>20</v>
@@ -863,60 +883,60 @@
     </row>
     <row r="6" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>21</v>
       </c>
       <c r="I6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>19</v>
@@ -925,7 +945,7 @@
         <v>18</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>21</v>
@@ -933,63 +953,63 @@
     </row>
     <row r="8" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>20</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>19</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="H9" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>21</v>
@@ -1003,51 +1023,73 @@
     </row>
     <row r="10" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="H10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>21</v>
-      </c>
       <c r="I10" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>19</v>
       </c>
       <c r="K10" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
+      <c r="J11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
@@ -1532,7 +1574,7 @@
     </row>
     <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="24"/>
       <c r="C49" s="24"/>
@@ -2501,11 +2543,12 @@
     <mergeCell ref="A49:H49"/>
     <mergeCell ref="A1:J1"/>
   </mergeCells>
+  <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F3:F10" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F3:F11" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Confirmed,Denied,Hold"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H3:K10" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H3:K11" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"M.H,AMR,AML,MENNA,BESHO,FOUDA,SALMA,None"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2513,10 +2556,11 @@
     <hyperlink ref="G9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="G10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="A49" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G7" r:id="rId4" xr:uid="{CC36D2EB-9AB3-4173-A06D-7F6DD2087E01}"/>
-    <hyperlink ref="G6" r:id="rId5" xr:uid="{84B8F19D-CD6E-4762-BDA2-B1D31CE7AD7D}"/>
+    <hyperlink ref="G6" r:id="rId4" xr:uid="{84B8F19D-CD6E-4762-BDA2-B1D31CE7AD7D}"/>
+    <hyperlink ref="G11" r:id="rId5" xr:uid="{DABC3307-5DF7-4966-B034-667801346EA8}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{D50A046C-9509-46FC-9E1D-BC786B40C2E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/1- PM/CIL.xlsx
+++ b/1- PM/CIL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beshoy Sameh\Documents\GitHub\Car-Purchasing-App\1- PM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCB185F-2E06-4000-AC5E-9776A74BCEA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE6FACF-06A4-43C5-9500-CAAC6E7D1928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="86">
   <si>
     <t>CONFIGURATION ITEM LIST (CIL)</t>
   </si>
@@ -183,9 +183,6 @@
     <t>V.1.3</t>
   </si>
   <si>
-    <t>https://github.com/beshoysamehsamaan/Car-Purchasing-App/blob/main/2-%20Reqs/SRS.docx</t>
-  </si>
-  <si>
     <t>https://github.com/beshoysamehsamaan/Car-Purchasing-App/blob/main/1-%20PM/PMP.docx</t>
   </si>
   <si>
@@ -195,9 +192,6 @@
     <t>https://github.com/beshoysamehsamaan/Car-Purchasing-App/blob/main/2-%20Reqs/SIQ.xlsx</t>
   </si>
   <si>
-    <t>https://github.com/beshoysamehsamaan/Car-Purchasing-App/blob/main/2-%20Reqs/RTM.docx</t>
-  </si>
-  <si>
     <t>CIL_10</t>
   </si>
   <si>
@@ -214,6 +208,84 @@
   </si>
   <si>
     <t>https://github.com/beshoysamehsamaan/Car-Purchasing-App/blob/main/1-%20PM/CIL.xlsx</t>
+  </si>
+  <si>
+    <t>Class Diagram</t>
+  </si>
+  <si>
+    <t>ERD</t>
+  </si>
+  <si>
+    <t>UseCase</t>
+  </si>
+  <si>
+    <t>CIL_11</t>
+  </si>
+  <si>
+    <t>CIL_12</t>
+  </si>
+  <si>
+    <t>CIL_13</t>
+  </si>
+  <si>
+    <t>Car-Purchasing-App/3- Design/High-Level-Design/ClassDiagram.PNG</t>
+  </si>
+  <si>
+    <t>Car-Purchasing-App/3- Design/High-Level-Design/ERD.PNG</t>
+  </si>
+  <si>
+    <t>Car-Purchasing-App/3- Design/High-Level-Design/Usecase.PNG</t>
+  </si>
+  <si>
+    <t>Car-Purchasing-App/3- Design/Low-Level-Design/flowcharts</t>
+  </si>
+  <si>
+    <t>Car-Purchasing-App/3- Design/Low-Level-Design/sequenceDiagram</t>
+  </si>
+  <si>
+    <t>Car-Purchasing-App/3- Design/Low-Level-Design/wireframe.docx</t>
+  </si>
+  <si>
+    <t>CIL_14</t>
+  </si>
+  <si>
+    <t>CIL_15</t>
+  </si>
+  <si>
+    <t>CIL_16</t>
+  </si>
+  <si>
+    <t>https://github.com/beshoysamehsamaan/Car-Purchasing-App/tree/Beshoy/3-%20Design/Low-Level-Design/Flow%20Charts</t>
+  </si>
+  <si>
+    <t>https://github.com/beshoysamehsamaan/Car-Purchasing-App/tree/Beshoy/3-%20Design/Low-Level-Design/Sequence%20Diagram</t>
+  </si>
+  <si>
+    <t>https://github.com/beshoysamehsamaan/Car-Purchasing-App/blob/Beshoy/3-%20Design/Low-Level-Design/Wire%20Frame.docx</t>
+  </si>
+  <si>
+    <t>https://github.com/beshoysamehsamaan/Car-Purchasing-App/blob/Beshoy/3-%20Design/High-Level-Design/Class%20Diagram.PNG</t>
+  </si>
+  <si>
+    <t>https://github.com/beshoysamehsamaan/Car-Purchasing-App/blob/Beshoy/3-%20Design/High-Level-Design/erd.png</t>
+  </si>
+  <si>
+    <t>https://github.com/beshoysamehsamaan/Car-Purchasing-App/blob/Beshoy/3-%20Design/High-Level-Design/usecase.png</t>
+  </si>
+  <si>
+    <t>https://github.com/beshoysamehsamaan/Car-Purchasing-App/blob/Beshoy/2-%20Reqs/SRS.docx</t>
+  </si>
+  <si>
+    <t>flowcharts</t>
+  </si>
+  <si>
+    <t>seq diagram</t>
+  </si>
+  <si>
+    <t>wireframe</t>
+  </si>
+  <si>
+    <t>v.1.1</t>
   </si>
 </sst>
 </file>
@@ -350,30 +422,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFBFBFBF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFBFBFBF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFBFBFBF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFBFBFBF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFBFBFBF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -411,57 +459,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -472,10 +524,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -485,8 +534,44 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -709,883 +794,1015 @@
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="75.140625" customWidth="1"/>
-    <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-    <col min="8" max="9" width="15.42578125" customWidth="1"/>
-    <col min="10" max="11" width="16" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="80.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="54.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="B11" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="11" t="s">
+    </row>
+    <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="11" t="s">
+    </row>
+    <row r="13" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="J13" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="7" t="s">
+    <row r="16" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="9" t="s">
+      <c r="D16" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="11" t="s">
+      <c r="G16" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="11" t="s">
+      <c r="K16" s="25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="7" t="s">
+    <row r="17" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="9" t="s">
+      <c r="D17" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="11" t="s">
+      <c r="G17" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="11" t="s">
+      <c r="I17" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="11" t="s">
+      <c r="J17" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="18"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
     </row>
     <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
     </row>
     <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2545,10 +2762,10 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F3:F11" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F3:F17" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Confirmed,Denied,Hold"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H3:K11" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H3:K17" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"M.H,AMR,AML,MENNA,BESHO,FOUDA,SALMA,None"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2559,8 +2776,14 @@
     <hyperlink ref="G6" r:id="rId4" xr:uid="{84B8F19D-CD6E-4762-BDA2-B1D31CE7AD7D}"/>
     <hyperlink ref="G11" r:id="rId5" xr:uid="{DABC3307-5DF7-4966-B034-667801346EA8}"/>
     <hyperlink ref="G7" r:id="rId6" xr:uid="{D50A046C-9509-46FC-9E1D-BC786B40C2E4}"/>
+    <hyperlink ref="G15" r:id="rId7" xr:uid="{94FBF7A8-18C6-40D9-A2AA-B2A6DFF1C5D6}"/>
+    <hyperlink ref="G16" r:id="rId8" xr:uid="{876411C7-8F83-4ECB-9117-486A8D1EF6BE}"/>
+    <hyperlink ref="G17" r:id="rId9" xr:uid="{BEC8D276-3B6A-4304-99C7-F4C35E9AE713}"/>
+    <hyperlink ref="G12" r:id="rId10" xr:uid="{25E9D0C3-1212-45A2-A644-1DB4EAD9D97A}"/>
+    <hyperlink ref="G13" r:id="rId11" xr:uid="{36055A32-4BB8-4925-8887-ADABA29825A2}"/>
+    <hyperlink ref="G14" r:id="rId12" xr:uid="{DB2CF37E-DDFB-4AF3-89D1-F677E9325658}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/1- PM/CIL.xlsx
+++ b/1- PM/CIL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beshoy Sameh\Documents\GitHub\Car-Purchasing-App\1- PM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE6FACF-06A4-43C5-9500-CAAC6E7D1928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A03FD73-8DD4-40D4-ACF8-4F3E294A39D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="96">
   <si>
     <t>CONFIGURATION ITEM LIST (CIL)</t>
   </si>
@@ -286,6 +286,36 @@
   </si>
   <si>
     <t>v.1.1</t>
+  </si>
+  <si>
+    <t>Design document</t>
+  </si>
+  <si>
+    <t>https://github.com/beshoysamehsamaan/Car-Purchasing-App/blob/main/3-%20Design/Design%20document.docx</t>
+  </si>
+  <si>
+    <t>Car-Purchasing-App/3- Design/Design document.docx</t>
+  </si>
+  <si>
+    <t>code of project</t>
+  </si>
+  <si>
+    <t>v.1.2</t>
+  </si>
+  <si>
+    <t>Car-Purchasing-App/4-Code</t>
+  </si>
+  <si>
+    <t>https://github.com/beshoysamehsamaan/Car-Purchasing-App/tree/main/4-%20Code</t>
+  </si>
+  <si>
+    <t>CIL_17</t>
+  </si>
+  <si>
+    <t>CIL_18</t>
+  </si>
+  <si>
+    <t>https://github.com/beshoysamehsamaan/Car-Purchasing-App/blob/main/2-%20Reqs/RTM.xlsx</t>
   </si>
 </sst>
 </file>
@@ -492,7 +522,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -526,13 +556,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -572,6 +595,19 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -795,7 +831,7 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -814,603 +850,649 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="22" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="22" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="25" t="s">
+      <c r="K6" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="25" t="s">
+      <c r="K7" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25" t="s">
+      <c r="G8" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="25" t="s">
+      <c r="K8" s="22" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="25" t="s">
+      <c r="K9" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="I10" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="J10" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="25" t="s">
+      <c r="K10" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="25" t="s">
+      <c r="J11" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="25" t="s">
+      <c r="K11" s="22" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="25" t="s">
+      <c r="J12" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="25" t="s">
+      <c r="K12" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="17" t="s">
         <v>64</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="20" t="s">
         <v>17</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="I13" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="25" t="s">
+      <c r="J13" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="K13" s="25" t="s">
+      <c r="K13" s="22" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="17" t="s">
         <v>65</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="20" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="H14" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="I14" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="25" t="s">
+      <c r="J14" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="25" t="s">
+      <c r="K14" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="17" t="s">
         <v>72</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="20" t="s">
         <v>17</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="I15" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="25" t="s">
+      <c r="J15" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="K15" s="25" t="s">
+      <c r="K15" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="17" t="s">
         <v>73</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="20" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="25" t="s">
+      <c r="I16" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="25" t="s">
+      <c r="J16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="K16" s="25" t="s">
+      <c r="K16" s="22" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="17" t="s">
         <v>74</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="20" t="s">
         <v>17</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="H17" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="25" t="s">
+      <c r="I17" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="25" t="s">
+      <c r="J17" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="25" t="s">
+      <c r="K17" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="A18" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
+      <c r="A19" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
@@ -1790,16 +1872,16 @@
       <c r="K48" s="10"/>
     </row>
     <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
       <c r="I49" s="11"/>
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
@@ -2762,10 +2844,10 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F3:F17" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F3:F19" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Confirmed,Denied,Hold"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H3:K17" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H3:K19" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"M.H,AMR,AML,MENNA,BESHO,FOUDA,SALMA,None"</formula1>
     </dataValidation>
   </dataValidations>
